--- a/data/processed/state_overviews/vermont_overview.xlsx
+++ b/data/processed/state_overviews/vermont_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>721</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Addison County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>44</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Bennington County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>49</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Caledonia County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>35</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Chittenden County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>161</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>23</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Grand Isle County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>9</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Lamoille County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>28</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Orange County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>37</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Orleans County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>29</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Rutland County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>39</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>113</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Windham County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>73</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Windsor County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>81</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -845,6 +873,38 @@
       <c r="F14" t="inlineStr">
         <is>
           <t>61.73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$610,463,403</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.62%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-10.12%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>66.71%</t>
         </is>
       </c>
     </row>
@@ -899,8 +959,10 @@
           <t>Congressional District (at Large)</t>
         </is>
       </c>
-      <c r="B2">
-        <v>721</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -929,8 +991,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B3">
-        <v>721</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1004,8 +1068,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>271</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1034,8 +1100,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>178</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1064,8 +1132,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>129</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1094,8 +1164,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>53</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1124,8 +1196,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>48</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1154,8 +1228,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>42</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1184,8 +1260,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>721</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1259,8 +1337,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>72</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1289,8 +1369,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>84</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1319,8 +1401,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>44</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1349,8 +1433,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>83</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1379,8 +1465,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B6">
-        <v>192</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1409,8 +1497,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B7">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1439,8 +1529,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B8">
-        <v>46</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1469,8 +1561,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1499,8 +1593,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B10">
-        <v>185</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1529,8 +1625,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B11">
-        <v>8</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1559,8 +1657,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B12">
-        <v>721</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/vermont_overview.xlsx
+++ b/data/processed/state_overviews/vermont_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,480 +431,512 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Addison County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$33,909,819</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.08%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-9.68%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>68.18%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bennington County</t>
+          <t>Vermont</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>721</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$28,821,941</t>
+          <t>$610,463,403</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.35%</t>
+          <t>8.62%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-5.23%</t>
+          <t>-10.12%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>59.18%</t>
+          <t>66.71%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Caledonia County</t>
+          <t>Addison County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$26,396,431</t>
+          <t>$33,909,819</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.69%</t>
+          <t>7.08%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-8.10%</t>
+          <t>-9.68%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>62.86%</t>
+          <t>68.18%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chittenden County</t>
+          <t>Bennington County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>49</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$196,388,428</t>
+          <t>$28,821,941</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.36%</t>
+          <t>11.35%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-8.22%</t>
+          <t>-5.23%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>68.94%</t>
+          <t>59.18%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Caledonia County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$21,829,441</t>
+          <t>$26,396,431</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.99%</t>
+          <t>12.69%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-18.70%</t>
+          <t>-8.10%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>69.57%</t>
+          <t>62.86%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Grand Isle County</t>
+          <t>Chittenden County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$989,142</t>
+          <t>$196,388,428</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.15%</t>
+          <t>9.36%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-16.76%</t>
+          <t>-8.22%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>55.56%</t>
+          <t>68.94%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lamoille County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$13,949,375</t>
+          <t>$21,829,441</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.30%</t>
+          <t>6.99%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-5.75%</t>
+          <t>-18.70%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>67.86%</t>
+          <t>69.57%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Orange County</t>
+          <t>Grand Isle County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$7,300,276</t>
+          <t>$989,142</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>12.46%</t>
+          <t>22.15%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-8.27%</t>
+          <t>-16.76%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>62.16%</t>
+          <t>55.56%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Orleans County</t>
+          <t>Lamoille County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$21,254,914</t>
+          <t>$13,949,375</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.58%</t>
+          <t>6.30%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-18.59%</t>
+          <t>-5.75%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>65.52%</t>
+          <t>67.86%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rutland County</t>
+          <t>Orange County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$38,389,109</t>
+          <t>$7,300,276</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.78%</t>
+          <t>12.46%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-23.31%</t>
+          <t>-8.27%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>69.23%</t>
+          <t>62.16%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Orleans County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$138,477,649</t>
+          <t>$21,254,914</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.48%</t>
+          <t>7.58%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-17.53%</t>
+          <t>-18.59%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>73.45%</t>
+          <t>65.52%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Windham County</t>
+          <t>Rutland County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$45,520,154</t>
+          <t>$38,389,109</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.35%</t>
+          <t>8.78%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-7.08%</t>
+          <t>-23.31%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>64.38%</t>
+          <t>69.23%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Windsor County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>113</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$37,236,724</t>
+          <t>$138,477,649</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.37%</t>
+          <t>8.48%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-6.83%</t>
+          <t>-17.53%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>61.73%</t>
+          <t>73.45%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Windham County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>73</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$610,463,403</t>
+          <t>$45,520,154</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.62%</t>
+          <t>8.35%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-10.12%</t>
+          <t>-7.08%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>66.71%</t>
+          <t>64.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Windsor County</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$37,236,724</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.37%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-6.83%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>61.73%</t>
         </is>
       </c>
     </row>
@@ -915,7 +947,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -924,71 +956,71 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District (at Large)</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>721</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$610,463,403</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.62%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-10.12%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>66.71%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Vermont</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1012,6 +1044,38 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>66.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Congressional district (at large)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>721</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>$610,463,403</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.62%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-10.12%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>66.71%</t>
         </is>
@@ -1038,34 +1102,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1097,128 +1161,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$148,315,462</t>
+          <t>$287,469,607</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.07%</t>
+          <t>4.20%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-13.12%</t>
+          <t>-4.74%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>70.22%</t>
+          <t>68.75%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>178</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$34,053,791</t>
+          <t>$148,315,462</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.82%</t>
+          <t>9.07%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-20.60%</t>
+          <t>-13.12%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>73.64%</t>
+          <t>70.22%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$112,479,395</t>
+          <t>$34,053,791</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.55%</t>
+          <t>6.82%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-10.27%</t>
+          <t>-20.60%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>73.58%</t>
+          <t>73.64%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>53</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$287,469,607</t>
+          <t>$112,479,395</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.20%</t>
+          <t>3.55%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-4.74%</t>
+          <t>-10.27%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>68.75%</t>
+          <t>73.58%</t>
         </is>
       </c>
     </row>
@@ -1307,34 +1371,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1366,7 +1430,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1398,7 +1462,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1430,7 +1494,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1462,7 +1526,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1494,7 +1558,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1526,7 +1590,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1558,7 +1622,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1590,64 +1654,64 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$175,929,621</t>
+          <t>$48,153,876</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.86%</t>
+          <t>3.39%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-13.74%</t>
+          <t>-4.52%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>71.35%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>185</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$48,153,876</t>
+          <t>$175,929,621</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.39%</t>
+          <t>6.86%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-4.52%</t>
+          <t>-13.74%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>71.35%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/vermont_overview.xlsx
+++ b/data/processed/state_overviews/vermont_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>66.71%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>721</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$610,463,403</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>8.62%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-10.12%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>66.71%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>66.71%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>721</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$610,463,403</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.62%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-10.12%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>66.71%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>68.18%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$33,909,819</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>7.08%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-9.68%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>68.18%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>59.18%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>49</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$28,821,941</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>11.35%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-5.23%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>59.18%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>62.86%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$26,396,431</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>12.69%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-8.10%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>62.86%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>68.94%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>161</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$196,388,428</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>9.36%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-8.22%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>68.94%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>69.57%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$21,829,441</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>6.99%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-18.70%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>69.57%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>55.56%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$989,142</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>22.15%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-16.76%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>55.56%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>67.86%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$13,949,375</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>6.30%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-5.75%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>67.86%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>62.16%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$7,300,276</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>12.46%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-8.27%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>62.16%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>65.52%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>29</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$21,254,914</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>7.58%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-18.59%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>65.52%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>69.23%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>39</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$38,389,109</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>8.78%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-23.31%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>69.23%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>73.45%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>113</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$138,477,649</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>8.48%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-17.53%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>73.45%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>64.38%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>73</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$45,520,154</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>8.35%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-7.08%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>64.38%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>61.73%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>81</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$37,236,724</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>7.37%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-6.83%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>61.73%</t>
         </is>
       </c>
     </row>
@@ -961,27 +961,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -993,27 +993,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -1025,59 +1025,59 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>66.71%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>721</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$610,463,403</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.62%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-10.12%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>66.71%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional district (at large)</t>
+          <t>Congressional District (at Large)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>66.71%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>721</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$610,463,403</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>8.62%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-10.12%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>66.71%</t>
         </is>
       </c>
     </row>
@@ -1102,187 +1102,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>61.25%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>271</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$26,097,622</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.26%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-8.38%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>61.25%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>70.22%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$287,469,607</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.20%</t>
+          <t>$148,315,462</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-4.74%</t>
+          <t>9.07%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>68.75%</t>
+          <t>-13.12%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>73.64%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$148,315,462</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.07%</t>
+          <t>$34,053,791</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-13.12%</t>
+          <t>6.82%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>70.22%</t>
+          <t>-20.60%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>73.58%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$34,053,791</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.82%</t>
+          <t>$112,479,395</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-20.60%</t>
+          <t>3.55%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>73.64%</t>
+          <t>-10.27%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>68.75%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$112,479,395</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.55%</t>
+          <t>$287,469,607</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-10.27%</t>
+          <t>4.20%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>73.58%</t>
+          <t>-4.74%</t>
         </is>
       </c>
     </row>
@@ -1294,27 +1294,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>54.76%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,047,526</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>25.76%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-7.23%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>54.76%</t>
         </is>
       </c>
     </row>
@@ -1326,27 +1326,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>66.71%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>721</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$610,463,403</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>8.62%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-10.12%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>66.71%</t>
         </is>
       </c>
     </row>
@@ -1371,347 +1371,347 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>45.83%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>72</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$19,304,902</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.86%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.18%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>45.83%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>69.05%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>84</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$35,716,156</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.54%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-12.47%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>69.05%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>44</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$21,795,168</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>16.19%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-0.45%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>71.08%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>83</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$94,080,771</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9.77%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-20.60%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>71.08%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>70.31%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>192</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$140,941,242</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>7.45%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-11.49%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>70.31%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$8,315,083</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2.11%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-47.00%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>69.57%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$65,493,643</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.08%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-30.22%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>69.57%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$732,941</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>34.96%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-3.96%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>71.35%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$48,153,876</t>
+          <t>185</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.39%</t>
+          <t>$175,929,621</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-4.52%</t>
+          <t>6.86%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>-13.74%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>62.50%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$175,929,621</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6.86%</t>
+          <t>$48,153,876</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-13.74%</t>
+          <t>3.39%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>71.35%</t>
+          <t>-4.52%</t>
         </is>
       </c>
     </row>
@@ -1723,27 +1723,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>66.71%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>721</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$610,463,403</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>8.62%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-10.12%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>66.71%</t>
         </is>
       </c>
     </row>
